--- a/表格-BOM/zh_CN/物料清单.xlsx
+++ b/表格-BOM/zh_CN/物料清单.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="0"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
@@ -49,7 +49,7 @@
     <t>买弯头别买弹簧线的，不是很好用</t>
   </si>
   <si>
-    <t>https://item.taobao.com/item.htm?spm=a1z0k.7386009.0.d4919233.348337de7C8KNc&amp;id=678235988829&amp;_u=t2dmg8j26111</t>
+    <t>https://item.taobao.com/item.htm?id=692009867008&amp;_u=93u8db4meccb</t>
   </si>
   <si>
     <t>Type-C数据线</t>
@@ -62,7 +62,7 @@
 链接里的键帽是我用的款式</t>
   </si>
   <si>
-    <t>https://item.taobao.com/item.htm?spm=a1z0d.6639537/tb.1997196601.4.36967484iROXXY&amp;id=678080577329</t>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.77f72e8deejjHh&amp;id=765079372303&amp;_u=93u8db4me6bd</t>
   </si>
   <si>
     <t>外壳</t>
@@ -102,34 +102,38 @@
     <t>https://item.taobao.com/item.htm?spm=a21n57.1.0.0.622e5be1rouPRQ&amp;id=721036741190&amp;ns=1&amp;abbucket=12#detail</t>
   </si>
   <si>
+    <t>PCB轴板</t>
+  </si>
+  <si>
+    <t>闲鱼</t>
+  </si>
+  <si>
     <t>镀锡铜线/0.4毫米/20米</t>
   </si>
   <si>
     <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.71e62e8dIKFyzM&amp;id=638790439962&amp;_u=a3u8db4m11f5</t>
   </si>
   <si>
-    <t>热缩管/透明/0.6毫米</t>
-  </si>
-  <si>
-    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.67002e8dhozYB9&amp;id=534010569395&amp;_u=93u8db4m3387</t>
-  </si>
-  <si>
     <t>热插拔轴座</t>
   </si>
   <si>
+    <t xml:space="preserve">4x6v6需要56个
+5x6v6a3需要72个</t>
+  </si>
+  <si>
     <t>https://detail.tmall.com/item.htm?_u=93u8db4m98b1&amp;id=640799882084&amp;skuId=4771754166143&amp;spm=a1z09.2.0.0.67002e8dhozYB9</t>
   </si>
   <si>
     <t>杜邦线/母对母/15厘米/尾部镀锡</t>
   </si>
   <si>
-    <t>可以买成品线，但是操作繁琐</t>
-  </si>
-  <si>
-    <t>https://item.taobao.com/item.htm?spm=a1z0d.6639537/tb.1997196601.21.3c287484hcp1og&amp;id=687033496949</t>
-  </si>
-  <si>
-    <t>单排6P杜邦头</t>
+    <t>可以买成品线，但是需要剥线镀锡，操作繁琐</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z0d.6639537/tb3.1997196601.364.5b5f7484o6UZPt&amp;id=665054009955&amp;skuId=4790810692385</t>
+  </si>
+  <si>
+    <t>单排7P杜邦头</t>
   </si>
   <si>
     <t>https://item.taobao.com/item.htm?spm=a1z0d.6639537/tb.1997196601.3.3c287484hcp1og&amp;id=522555619895</t>
@@ -144,13 +148,13 @@
     <t>https://detail.tmall.com/item.htm?_u=f3u8db4m1e12&amp;id=553761297790&amp;skuId=3569291602072&amp;spm=a1z09.2.0.0.31f22e8dRLXEKe</t>
   </si>
   <si>
-    <t>1N4148二极管</t>
+    <t>1N4148二极管/SOD123</t>
   </si>
   <si>
     <t>无铅锡</t>
   </si>
   <si>
-    <t>https://detail.tmall.com/item.htm?_u=t2dmg8j26111&amp;id=684083894949&amp;spm=a1z0k.7385961.1997985097.d4918997.278237detXrEBa&amp;skuId=5064207659057</t>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.77f72e8deejjHh&amp;id=38623637122&amp;_u=93u8db4mf70e</t>
   </si>
   <si>
     <t>热熔黄铜螺母/m3*3*5</t>
@@ -181,9 +185,6 @@
   </si>
   <si>
     <t>¥制作一对键盘所需的物料总价</t>
-  </si>
-  <si>
-    <t>不含耳机线、数据线、键帽</t>
   </si>
   <si>
     <t xml:space="preserve">CC-BY-SA 4.0</t>
@@ -203,7 +204,7 @@
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
-      <name val="蘋方-簡"/>
+      <name val="Noto Sans Mono CJK SC"/>
     </font>
     <font>
       <u/>
@@ -215,7 +216,7 @@
       <u/>
       <sz val="11.000000"/>
       <color theme="10"/>
-      <name val="蘋方-簡"/>
+      <name val="Noto Sans Mono CJK SC"/>
     </font>
   </fonts>
   <fills count="4">
@@ -259,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -283,6 +284,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="1" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -812,7 +819,7 @@
     <col min="10" max="16384" style="1" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="33">
+    <row r="1" s="1" customFormat="1" ht="36">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -842,27 +849,27 @@
       </c>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="33">
+    <row r="2" s="1" customFormat="1" ht="36">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="1">
-        <v>10.5</v>
+        <v>6.6600000000000001</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" ref="D2:D20" si="0">B2/C2</f>
-        <v>10.5</v>
+        <f>B2/C2</f>
+        <v>6.6600000000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1">
-        <f t="shared" ref="G2:G9" si="1">D2*E2+F2</f>
-        <v>0</v>
+        <f t="shared" ref="G2:G8" si="0">D2*E2+F2</f>
+        <v>6.6600000000000001</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>10</v>
@@ -877,27 +884,27 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="16.5">
+    <row r="3" s="1" customFormat="1" ht="18">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
+        <f t="shared" ref="D3:D20" si="1">B3/C3</f>
+        <v>4</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="4"/>
@@ -908,32 +915,32 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="49.5">
+    <row r="4" s="1" customFormat="1" ht="54">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="1">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <f t="shared" si="1"/>
+        <v>33</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>33</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="J4" s="1"/>
@@ -955,7 +962,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="E5" s="5">
@@ -963,7 +970,7 @@
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="H5" s="5" t="s">
@@ -991,7 +998,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="E6" s="1">
@@ -999,7 +1006,7 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="H6" s="1"/>
@@ -1023,7 +1030,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E7" s="1">
@@ -1031,7 +1038,7 @@
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H7" s="1"/>
@@ -1043,7 +1050,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" s="5" customFormat="1" ht="33">
+    <row r="8" s="5" customFormat="1" ht="36">
       <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
@@ -1054,7 +1061,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14.9</v>
       </c>
       <c r="E8" s="5">
@@ -1064,7 +1071,7 @@
         <v>4</v>
       </c>
       <c r="G8" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>33.799999999999997</v>
       </c>
       <c r="H8" s="5" t="s">
@@ -1080,7 +1087,7 @@
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="66">
+    <row r="9" s="1" customFormat="1" ht="72">
       <c r="A9" s="8" t="s">
         <v>24</v>
       </c>
@@ -1091,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="E9" s="1">
@@ -1099,13 +1106,13 @@
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1">
-        <f t="shared" si="1"/>
+        <f>D9*E9+F9</f>
         <v>75</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="4" t="s">
         <v>26</v>
       </c>
       <c r="J9" s="1"/>
@@ -1115,116 +1122,122 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="33">
-      <c r="A10" s="1" t="s">
+    <row r="10" s="1" customFormat="1" ht="18">
+      <c r="A10" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="1">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>B10/C10</f>
+        <v>0.26666666666666666</v>
       </c>
       <c r="E10" s="1">
-        <v>0.10000000000000001</v>
+        <v>72</v>
       </c>
       <c r="F10" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" ref="G10:G21" si="2">D10*E10+F10</f>
-        <v>4.5</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="4" t="s">
+        <f>D10*E10+F10</f>
+        <v>31.199999999999999</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="I10" s="4"/>
       <c r="J10" s="1"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="33">
+    <row r="11" s="1" customFormat="1" ht="36">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="1">
-        <v>0.32000000000000001</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="0"/>
-        <v>0.32000000000000001</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="F11" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="2"/>
-        <v>2.3199999999999998</v>
+        <f t="shared" ref="G11:G21" si="2">D11*E11+F11</f>
+        <v>4.5</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="49.5">
+    <row r="12" s="1" customFormat="1" ht="54">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="1">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="0"/>
-        <v>0.38571428571428573</v>
+        <f t="shared" si="1"/>
+        <v>0.38750000000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="F12" s="1">
         <v>4</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="2"/>
-        <v>25.600000000000001</v>
-      </c>
-      <c r="H12" s="1"/>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="I12" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" ht="33">
+    <row r="13" ht="42.75">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1">
         <v>100</v>
       </c>
       <c r="D13" s="1">
         <f>B13/C13</f>
-        <v>8.0000000000000002e-02</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="E13" s="1">
         <v>24</v>
@@ -1232,30 +1245,30 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1">
         <f t="shared" si="2"/>
-        <v>1.9199999999999999</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" s="4" t="s">
         <v>35</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="J13" s="1"/>
       <c r="O13" s="1"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="33.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14" s="1">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="C14" s="1">
         <v>20</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="0"/>
-        <v>5.0000000000000003e-02</v>
+        <f t="shared" si="1"/>
+        <v>0.059999999999999998</v>
       </c>
       <c r="E14" s="1">
         <v>4</v>
@@ -1263,11 +1276,11 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1">
         <f t="shared" si="2"/>
-        <v>0.20000000000000001</v>
+        <v>0.23999999999999999</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1278,7 +1291,7 @@
     </row>
     <row r="15" s="1" customFormat="1" ht="33.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" s="1">
         <v>1.2</v>
@@ -1288,7 +1301,7 @@
       </c>
       <c r="D15" s="1">
         <f t="shared" ref="D15:D16" si="3">B15/C15</f>
-        <v>1.2e-02</v>
+        <v>0.012</v>
       </c>
       <c r="E15" s="1">
         <v>6</v>
@@ -1296,11 +1309,11 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1">
         <f t="shared" si="2"/>
-        <v>7.2000000000000008e-02</v>
+        <v>0.072000000000000008</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1309,9 +1322,9 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" ht="49.5">
+    <row r="16" ht="54">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" s="1">
         <v>2.3900000000000001</v>
@@ -1333,43 +1346,43 @@
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" ht="49.5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" ht="54">
       <c r="A17" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B17" s="1">
-        <v>1.8600000000000001</v>
+        <v>3</v>
       </c>
       <c r="C17" s="1">
         <v>100</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="0"/>
-        <v>1.8600000000000002e-02</v>
+        <f t="shared" si="1"/>
+        <v>0.029999999999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1">
         <f t="shared" si="2"/>
-        <v>1.1160000000000001</v>
+        <v>2.1600000000000001</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I17" s="4" t="s">
         <v>43</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="J17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" ht="49.5">
+    <row r="18" ht="54">
       <c r="A18" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B18" s="1">
         <v>6.2000000000000002</v>
@@ -1378,7 +1391,7 @@
         <v>50</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.124</v>
       </c>
       <c r="E18" s="1">
@@ -1391,12 +1404,12 @@
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" ht="49.5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" ht="54">
       <c r="A19" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" s="1">
         <v>5.7999999999999998</v>
@@ -1405,8 +1418,8 @@
         <v>100</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="0"/>
-        <v>5.7999999999999996e-02</v>
+        <f t="shared" si="1"/>
+        <v>0.057999999999999996</v>
       </c>
       <c r="E19" s="1">
         <v>10</v>
@@ -1418,12 +1431,12 @@
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" s="5" customFormat="1" ht="16.5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" s="5" customFormat="1" ht="18">
       <c r="A20" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B20" s="5">
         <v>60</v>
@@ -1432,7 +1445,7 @@
         <v>200</v>
       </c>
       <c r="D20" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.29999999999999999</v>
       </c>
       <c r="E20" s="5">
@@ -1444,14 +1457,14 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" ht="16.5">
+    <row r="21" ht="18">
       <c r="A21" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B21" s="1">
         <v>6</v>
@@ -1472,9 +1485,9 @@
       </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" ht="16.5">
+    <row r="22" ht="18">
       <c r="A22" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B22" s="1">
         <v>16</v>
@@ -1493,7 +1506,6 @@
         <f>D22*E22+F23</f>
         <v>0.20000000000000001</v>
       </c>
-      <c r="H22" s="1"/>
     </row>
     <row r="23" ht="16.5">
       <c r="A23" s="1"/>
@@ -1503,39 +1515,39 @@
       <c r="E23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" ht="82.5">
+    <row r="24" ht="90">
       <c r="A24" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B24" s="1">
-        <f>SUM(B9:B22)+SUM(F8:F12)+SUM(G5:G8)</f>
-        <v>349.56999999999999</v>
+        <f>SUM(B9:B22)+SUM(F8:F12)+SUM(G2:G8)</f>
+        <v>429.24999999999994</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G24" s="1">
         <f>SUM(G2:G22)+SUM(F8:F12)</f>
-        <v>252.08699999999999</v>
+        <v>341.29099999999994</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" ht="16.5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" ht="18">
+      <c r="B25" s="1"/>
       <c r="D25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="9" t="s">
-        <v>55</v>
-      </c>
+      <c r="H25" s="11"/>
     </row>
     <row r="26" ht="14.25">
       <c r="B26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
     </row>
     <row r="27" ht="14.25">
       <c r="B27" s="1"/>
@@ -1563,16 +1575,15 @@
     <hyperlink r:id="rId3" ref="I5"/>
     <hyperlink r:id="rId4" ref="I8"/>
     <hyperlink r:id="rId5" ref="I9"/>
-    <hyperlink r:id="rId6" ref="I10"/>
-    <hyperlink r:id="rId7" ref="I11"/>
-    <hyperlink r:id="rId8" ref="I12"/>
-    <hyperlink r:id="rId9" ref="I13"/>
-    <hyperlink r:id="rId10" ref="I14"/>
-    <hyperlink r:id="rId10" ref="I15"/>
-    <hyperlink r:id="rId11" ref="I16"/>
-    <hyperlink r:id="rId12" ref="I17"/>
-    <hyperlink r:id="rId13" ref="I18"/>
-    <hyperlink r:id="rId14" ref="I19"/>
+    <hyperlink r:id="rId6" ref="I11"/>
+    <hyperlink r:id="rId7" ref="I12"/>
+    <hyperlink r:id="rId8" ref="I13"/>
+    <hyperlink r:id="rId9" ref="I14"/>
+    <hyperlink r:id="rId9" ref="I15"/>
+    <hyperlink r:id="rId10" ref="I16"/>
+    <hyperlink r:id="rId11" ref="I17"/>
+    <hyperlink r:id="rId12" ref="I18"/>
+    <hyperlink r:id="rId13" ref="I19"/>
   </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>

--- a/表格-BOM/zh_CN/物料清单.xlsx
+++ b/表格-BOM/zh_CN/物料清单.xlsx
@@ -95,11 +95,13 @@
     <t>轴体</t>
   </si>
   <si>
-    <t xml:space="preserve">要性价比买灰木轴
+    <t xml:space="preserve">记得备注要防尘的
+要性价比买灰木轴
+要好听买BOX白轴
 要便宜买高特轴，性能差点。但75元可以买3套，坏了就换</t>
   </si>
   <si>
-    <t>https://item.taobao.com/item.htm?spm=a21n57.1.0.0.622e5be1rouPRQ&amp;id=721036741190&amp;ns=1&amp;abbucket=12#detail</t>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.ec482e8dSW6faH&amp;id=616113892809&amp;_u=a3u8db4m6541&amp;skuId=5320545317632</t>
   </si>
   <si>
     <t>PCB轴板</t>
@@ -260,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -287,9 +289,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -860,7 +859,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <f>B2/C2</f>
+        <f t="shared" ref="D2:D20" si="0">B2/C2</f>
         <v>6.6600000000000001</v>
       </c>
       <c r="E2" s="1">
@@ -868,7 +867,7 @@
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1">
-        <f t="shared" ref="G2:G8" si="0">D2*E2+F2</f>
+        <f t="shared" ref="G2:G9" si="1">D2*E2+F2</f>
         <v>6.6600000000000001</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -895,7 +894,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D20" si="1">B3/C3</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E3" s="1">
@@ -903,7 +902,7 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="H3" s="1"/>
@@ -926,7 +925,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="E4" s="1">
@@ -934,7 +933,7 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -962,7 +961,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="E5" s="5">
@@ -970,7 +969,7 @@
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="H5" s="5" t="s">
@@ -998,7 +997,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="E6" s="1">
@@ -1006,7 +1005,7 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="H6" s="1"/>
@@ -1030,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E7" s="1">
@@ -1038,7 +1037,7 @@
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="H7" s="1"/>
@@ -1061,7 +1060,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>14.9</v>
       </c>
       <c r="E8" s="5">
@@ -1071,7 +1070,7 @@
         <v>4</v>
       </c>
       <c r="G8" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33.799999999999997</v>
       </c>
       <c r="H8" s="5" t="s">
@@ -1087,32 +1086,32 @@
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="72">
+    <row r="9" s="1" customFormat="1" ht="108">
       <c r="A9" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="1">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="1"/>
-        <v>75</v>
+        <f t="shared" si="0"/>
+        <v>0.40000000000000002</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1">
-        <f>D9*E9+F9</f>
-        <v>75</v>
+        <f t="shared" si="1"/>
+        <v>28.800000000000001</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J9" s="1"/>
@@ -1143,7 +1142,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="1">
-        <f>D10*E10+F10</f>
+        <f t="shared" ref="G10:G21" si="2">D10*E10+F10</f>
         <v>31.199999999999999</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -1151,10 +1150,10 @@
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="36">
@@ -1168,7 +1167,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="E11" s="1">
@@ -1178,7 +1177,7 @@
         <v>4</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" ref="G11:G21" si="2">D11*E11+F11</f>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="H11" s="1"/>
@@ -1199,7 +1198,7 @@
         <v>80</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.38750000000000001</v>
       </c>
       <c r="E12" s="1">
@@ -1267,7 +1266,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.059999999999999998</v>
       </c>
       <c r="E14" s="1">
@@ -1349,7 +1348,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" ht="54">
+    <row r="17" ht="36">
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
@@ -1360,7 +1359,7 @@
         <v>100</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.029999999999999999</v>
       </c>
       <c r="E17" s="1">
@@ -1391,7 +1390,7 @@
         <v>50</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.124</v>
       </c>
       <c r="E18" s="1">
@@ -1418,7 +1417,7 @@
         <v>100</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.057999999999999996</v>
       </c>
       <c r="E19" s="1">
@@ -1445,7 +1444,7 @@
         <v>200</v>
       </c>
       <c r="D20" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.29999999999999999</v>
       </c>
       <c r="E20" s="5">
@@ -1521,7 +1520,7 @@
       </c>
       <c r="B24" s="1">
         <f>SUM(B9:B22)+SUM(F8:F12)+SUM(G2:G8)</f>
-        <v>429.24999999999994</v>
+        <v>390.25</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1530,7 +1529,7 @@
       </c>
       <c r="G24" s="1">
         <f>SUM(G2:G22)+SUM(F8:F12)</f>
-        <v>341.29099999999994</v>
+        <v>295.09099999999995</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>55</v>
@@ -1540,7 +1539,7 @@
       <c r="B25" s="1"/>
       <c r="D25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="11"/>
+      <c r="H25" s="10"/>
     </row>
     <row r="26" ht="14.25">
       <c r="B26" s="1"/>

--- a/表格-BOM/zh_CN/物料清单.xlsx
+++ b/表格-BOM/zh_CN/物料清单.xlsx
@@ -196,10 +196,22 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.000000"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.000000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -230,14 +242,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FF92D050"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="9"/>
+        <bgColor theme="9"/>
       </patternFill>
     </fill>
   </fills>
@@ -259,44 +271,42 @@
       <diagonal style="none"/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
+    <xf fontId="2" fillId="3" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="3" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="5" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Accent6" xfId="2" builtinId="49"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -986,7 +996,7 @@
       <c r="O5" s="5"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="1">
@@ -1018,7 +1028,7 @@
       <c r="O6" s="1"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="1">
@@ -1087,7 +1097,7 @@
       <c r="O8" s="5"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="108">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="1">
@@ -1122,7 +1132,7 @@
       <c r="O9" s="1"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="18">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="1">
@@ -1539,7 +1549,7 @@
       <c r="B25" s="1"/>
       <c r="D25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="10"/>
+      <c r="H25" s="8"/>
     </row>
     <row r="26" ht="14.25">
       <c r="B26" s="1"/>

--- a/表格-BOM/zh_CN/物料清单.xlsx
+++ b/表格-BOM/zh_CN/物料清单.xlsx
@@ -46,10 +46,10 @@
 三段式</t>
   </si>
   <si>
-    <t>买弯头别买弹簧线的，不是很好用</t>
-  </si>
-  <si>
-    <t>https://item.taobao.com/item.htm?id=692009867008&amp;_u=93u8db4meccb</t>
+    <t>硬质线有弹力，不能随意拉伸，不好用</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.43b02e8dvn8gpu&amp;id=718062173951&amp;_u=c3u8db4mdc68&amp;skuId=5183752395139</t>
   </si>
   <si>
     <t>Type-C数据线</t>
@@ -858,19 +858,19 @@
       </c>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="36">
+    <row r="2" s="1" customFormat="1" ht="42.75">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="1">
-        <v>6.6600000000000001</v>
+        <v>14.9</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="1">
         <f t="shared" ref="D2:D20" si="0">B2/C2</f>
-        <v>6.6600000000000001</v>
+        <v>14.9</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -878,7 +878,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1">
         <f t="shared" ref="G2:G9" si="1">D2*E2+F2</f>
-        <v>6.6600000000000001</v>
+        <v>14.9</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>10</v>
@@ -1530,7 +1530,7 @@
       </c>
       <c r="B24" s="1">
         <f>SUM(B9:B22)+SUM(F8:F12)+SUM(G2:G8)</f>
-        <v>390.25</v>
+        <v>398.49000000000001</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="G24" s="1">
         <f>SUM(G2:G22)+SUM(F8:F12)</f>
-        <v>295.09099999999995</v>
+        <v>303.33099999999996</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>55</v>

--- a/表格-BOM/zh_CN/物料清单.xlsx
+++ b/表格-BOM/zh_CN/物料清单.xlsx
@@ -46,10 +46,8 @@
 三段式</t>
   </si>
   <si>
-    <t>硬质线有弹力，不能随意拉伸，不好用</t>
-  </si>
-  <si>
-    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.43b02e8dvn8gpu&amp;id=718062173951&amp;_u=c3u8db4mdc68&amp;skuId=5183752395139</t>
+    <t xml:space="preserve">硬质线有弹力，不能随意拉伸，不好用
+建议自己买材料焊，市面上买的都不太好用</t>
   </si>
   <si>
     <t>Type-C数据线</t>
@@ -62,7 +60,7 @@
 链接里的键帽是我用的款式</t>
   </si>
   <si>
-    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.77f72e8deejjHh&amp;id=765079372303&amp;_u=93u8db4me6bd</t>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.75db2e8dOcwtxo&amp;id=678080577329&amp;_u=q3u8db4m26d4&amp;skuId=4865165404358</t>
   </si>
   <si>
     <t>外壳</t>
@@ -107,7 +105,7 @@
     <t>PCB轴板</t>
   </si>
   <si>
-    <t>闲鱼</t>
+    <t>闲鱼或自己打样</t>
   </si>
   <si>
     <t>镀锡铜线/0.4毫米/20米</t>
@@ -144,10 +142,14 @@
     <t xml:space="preserve"> 单排1P杜邦头</t>
   </si>
   <si>
-    <t>PJ-320B耳机口</t>
-  </si>
-  <si>
-    <t>https://detail.tmall.com/item.htm?_u=f3u8db4m1e12&amp;id=553761297790&amp;skuId=3569291602072&amp;spm=a1z09.2.0.0.31f22e8dRLXEKe</t>
+    <t>PJ-320A耳机口/直插/镀金</t>
+  </si>
+  <si>
+    <t xml:space="preserve">镀金的更好焊接
+兼容3、4段耳机线</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=756599475077&amp;spm=a1z09.2.0.0.75db2e8dOcwtxo&amp;_u=q3u8db4m4152&amp;skuId=5388723195957</t>
   </si>
   <si>
     <t>1N4148二极管/SOD123</t>
@@ -287,9 +289,6 @@
     <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf fontId="3" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -297,6 +296,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="5" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -858,7 +860,7 @@
       </c>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="42.75">
+    <row r="2" s="1" customFormat="1" ht="72">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -883,9 +885,7 @@
       <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -895,7 +895,7 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="18">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1">
         <v>4</v>
@@ -916,7 +916,7 @@
         <v>4</v>
       </c>
       <c r="H3" s="1"/>
-      <c r="I3" s="4"/>
+      <c r="I3" s="3"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -926,17 +926,17 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="54">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1">
-        <v>33</v>
+        <v>54.399999999999999</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>54.399999999999999</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -944,13 +944,13 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>54.399999999999999</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -959,45 +959,45 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" s="5" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="5">
+    <row r="5" s="4" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4">
         <f>0.2*150</f>
         <v>30</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>1</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>2</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A6" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A6" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="B6" s="1">
         <f>0.2*55</f>
@@ -1019,7 +1019,7 @@
         <v>22</v>
       </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="4"/>
+      <c r="I6" s="7"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -1028,8 +1028,8 @@
       <c r="O6" s="1"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A7" s="6" t="s">
-        <v>20</v>
+      <c r="A7" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="B7" s="1">
         <f>0.2*10</f>
@@ -1051,7 +1051,7 @@
         <v>4</v>
       </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="4"/>
+      <c r="I7" s="7"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -1059,46 +1059,46 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" s="5" customFormat="1" ht="36">
-      <c r="A8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="5">
+    <row r="8" s="4" customFormat="1" ht="36">
+      <c r="A8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="4">
         <v>14.9</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>1</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <f t="shared" si="0"/>
         <v>14.9</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>2</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>4</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <f t="shared" si="1"/>
         <v>33.799999999999997</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="108">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1">
         <v>36</v>
@@ -1119,10 +1119,10 @@
         <v>28.800000000000001</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1132,8 +1132,8 @@
       <c r="O9" s="1"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="18">
-      <c r="A10" s="6" t="s">
-        <v>27</v>
+      <c r="A10" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B10" s="1">
         <v>24</v>
@@ -1156,9 +1156,9 @@
         <v>31.199999999999999</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="I10" s="3"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -1168,7 +1168,7 @@
     </row>
     <row r="11" s="1" customFormat="1" ht="36">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1">
         <v>5</v>
@@ -1191,15 +1191,15 @@
         <v>4.5</v>
       </c>
       <c r="H11" s="1"/>
-      <c r="I11" s="4" t="s">
-        <v>30</v>
+      <c r="I11" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="J11" s="1"/>
       <c r="O11" s="1"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="54">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1">
         <v>31</v>
@@ -1222,10 +1222,10 @@
         <v>31.900000000000002</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1236,7 +1236,7 @@
     </row>
     <row r="13" ht="42.75">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" s="1">
         <v>5</v>
@@ -1257,17 +1257,17 @@
         <v>1.2000000000000002</v>
       </c>
       <c r="H13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="J13" s="1"/>
       <c r="O13" s="1"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="33.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="1">
         <v>1.2</v>
@@ -1288,8 +1288,8 @@
         <v>0.23999999999999999</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="4" t="s">
-        <v>38</v>
+      <c r="I14" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1300,7 +1300,7 @@
     </row>
     <row r="15" s="1" customFormat="1" ht="33.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" s="1">
         <v>1.2</v>
@@ -1321,8 +1321,8 @@
         <v>0.072000000000000008</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="4" t="s">
-        <v>38</v>
+      <c r="I15" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1331,19 +1331,19 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" ht="54">
+    <row r="16" ht="42.75">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" s="1">
-        <v>2.3900000000000001</v>
+        <v>2.75</v>
       </c>
       <c r="C16" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="3"/>
-        <v>0.11950000000000001</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="E16" s="1">
         <v>2</v>
@@ -1351,10 +1351,12 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1">
         <f t="shared" si="2"/>
-        <v>0.23900000000000002</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="4" t="s">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1412,7 +1414,7 @@
         <v>1.24</v>
       </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1439,37 +1441,37 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" s="5" customFormat="1" ht="18">
-      <c r="A20" s="5" t="s">
+    <row r="20" s="4" customFormat="1" ht="18">
+      <c r="A20" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>60</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>200</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <f t="shared" si="0"/>
         <v>0.29999999999999999</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <v>17</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5">
+      <c r="F20" s="4"/>
+      <c r="G20" s="4">
         <f t="shared" si="2"/>
         <v>5.0999999999999996</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="5"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="4"/>
     </row>
     <row r="21" ht="18">
       <c r="A21" s="1" t="s">
@@ -1530,7 +1532,7 @@
       </c>
       <c r="B24" s="1">
         <f>SUM(B9:B22)+SUM(F8:F12)+SUM(G2:G8)</f>
-        <v>398.49000000000001</v>
+        <v>420.25</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1539,7 +1541,7 @@
       </c>
       <c r="G24" s="1">
         <f>SUM(G2:G22)+SUM(F8:F12)</f>
-        <v>303.33099999999996</v>
+        <v>325.04200000000003</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>55</v>
@@ -1579,20 +1581,19 @@
     <mergeCell ref="I5:I7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="I2"/>
-    <hyperlink r:id="rId2" ref="I4"/>
-    <hyperlink r:id="rId3" ref="I5"/>
-    <hyperlink r:id="rId4" ref="I8"/>
-    <hyperlink r:id="rId5" ref="I9"/>
-    <hyperlink r:id="rId6" ref="I11"/>
-    <hyperlink r:id="rId7" ref="I12"/>
-    <hyperlink r:id="rId8" ref="I13"/>
-    <hyperlink r:id="rId9" ref="I14"/>
-    <hyperlink r:id="rId9" ref="I15"/>
-    <hyperlink r:id="rId10" ref="I16"/>
-    <hyperlink r:id="rId11" ref="I17"/>
-    <hyperlink r:id="rId12" ref="I18"/>
-    <hyperlink r:id="rId13" ref="I19"/>
+    <hyperlink r:id="rId1" ref="I4"/>
+    <hyperlink r:id="rId2" ref="I5"/>
+    <hyperlink r:id="rId3" ref="I8"/>
+    <hyperlink r:id="rId4" ref="I9"/>
+    <hyperlink r:id="rId5" ref="I11"/>
+    <hyperlink r:id="rId6" ref="I12"/>
+    <hyperlink r:id="rId7" ref="I13"/>
+    <hyperlink r:id="rId8" ref="I14"/>
+    <hyperlink r:id="rId8" ref="I15"/>
+    <hyperlink r:id="rId9" ref="I16"/>
+    <hyperlink r:id="rId10" ref="I17"/>
+    <hyperlink r:id="rId11" ref="I18"/>
+    <hyperlink r:id="rId12" ref="I19"/>
   </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>

--- a/表格-BOM/zh_CN/物料清单.xlsx
+++ b/表格-BOM/zh_CN/物料清单.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>名称</t>
   </si>
@@ -106,6 +106,10 @@
   </si>
   <si>
     <t>闲鱼或自己打样</t>
+  </si>
+  <si>
+    <t xml:space="preserve">二极管1N4148
+/SOD-123</t>
   </si>
   <si>
     <t>镀锡铜线/0.4毫米/20米</t>
@@ -278,7 +282,7 @@
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="2" fillId="3" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -299,6 +303,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -871,7 +881,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" ref="D2:D20" si="0">B2/C2</f>
+        <f t="shared" ref="D2:D21" si="0">B2/C2</f>
         <v>14.9</v>
       </c>
       <c r="E2" s="1">
@@ -1152,7 +1162,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" ref="G10:G21" si="2">D10*E10+F10</f>
+        <f t="shared" ref="G10:G22" si="2">D10*E10+F10</f>
         <v>31.199999999999999</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -1166,163 +1176,163 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="36">
-      <c r="A11" s="1" t="s">
+    <row r="11" s="1" customFormat="1" ht="18">
+      <c r="A11" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11" s="1">
+        <f>B11/C11</f>
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <f>D11*E11+F11</f>
+        <v>3</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="36">
+      <c r="A12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E12" s="1">
         <v>0.10000000000000001</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F12" s="1">
         <v>4</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G12" s="1">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J11" s="1"/>
-      <c r="O11" s="1"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="54">
-      <c r="A12" s="1" t="s">
+      <c r="H12" s="1"/>
+      <c r="I12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="1">
+      <c r="J12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="54">
+      <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="1">
+      <c r="B13" s="1">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1">
         <v>80</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D13" s="1">
         <f t="shared" si="0"/>
         <v>0.38750000000000001</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E13" s="1">
         <v>72</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F13" s="1">
         <v>4</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G13" s="1">
         <f t="shared" si="2"/>
         <v>31.900000000000002</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="7" t="s">
+      <c r="H13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-    </row>
-    <row r="13" ht="42.75">
-      <c r="A13" s="1" t="s">
+      <c r="I13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="1">
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" ht="42.75">
+      <c r="A14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="1">
         <v>5</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C14" s="1">
         <v>100</v>
       </c>
-      <c r="D13" s="1">
-        <f>B13/C13</f>
+      <c r="D14" s="1">
+        <f>B14/C14</f>
         <v>0.050000000000000003</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E14" s="1">
         <v>24</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1">
-        <f t="shared" si="2"/>
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J13" s="1"/>
-      <c r="O13" s="1"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="C14" s="1">
-        <v>20</v>
-      </c>
-      <c r="D14" s="1">
-        <f t="shared" si="0"/>
-        <v>0.059999999999999998</v>
-      </c>
-      <c r="E14" s="1">
-        <v>4</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1">
         <f t="shared" si="2"/>
-        <v>0.23999999999999999</v>
-      </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="7" t="s">
-        <v>37</v>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="33.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" s="1">
         <v>1.2</v>
       </c>
       <c r="C15" s="1">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" ref="D15:D16" si="3">B15/C15</f>
-        <v>0.012</v>
+        <f t="shared" si="0"/>
+        <v>0.059999999999999998</v>
       </c>
       <c r="E15" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1">
         <f t="shared" si="2"/>
-        <v>0.072000000000000008</v>
+        <v>0.23999999999999999</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1331,106 +1341,112 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" ht="42.75">
+    <row r="16" s="1" customFormat="1" ht="33.75" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B16" s="1">
-        <v>2.75</v>
+        <v>1.2</v>
       </c>
       <c r="C16" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="3"/>
-        <v>0.27500000000000002</v>
+        <f t="shared" ref="D16:D17" si="3">B16/C16</f>
+        <v>0.012</v>
       </c>
       <c r="E16" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1">
         <f t="shared" si="2"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="H16" s="1" t="s">
+        <v>0.072000000000000008</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" ht="42.75">
+      <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I16" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" ht="36">
-      <c r="A17" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="B17" s="1">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="C17" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="0"/>
-        <v>0.029999999999999999</v>
+        <f t="shared" si="3"/>
+        <v>0.27500000000000002</v>
       </c>
       <c r="E17" s="1">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1">
         <f t="shared" si="2"/>
-        <v>2.1600000000000001</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" ht="36">
+      <c r="A18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J17" s="1"/>
-      <c r="O17" s="1"/>
-    </row>
-    <row r="18" ht="54">
-      <c r="A18" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="B18" s="1">
-        <v>6.2000000000000002</v>
+        <v>3</v>
       </c>
       <c r="C18" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="0"/>
-        <v>0.124</v>
+        <v>0.029999999999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1">
         <f t="shared" si="2"/>
-        <v>1.24</v>
-      </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="7" t="s">
-        <v>46</v>
-      </c>
+        <v>2.1600000000000001</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="O18" s="1"/>
     </row>
     <row r="19" ht="54">
       <c r="A19" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" s="1">
-        <v>5.7999999999999998</v>
+        <v>6.2000000000000002</v>
       </c>
       <c r="C19" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="0"/>
-        <v>0.057999999999999996</v>
+        <v>0.124</v>
       </c>
       <c r="E19" s="1">
         <v>10</v>
@@ -1438,142 +1454,169 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1">
         <f t="shared" si="2"/>
-        <v>0.57999999999999996</v>
+        <v>1.24</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" ht="54">
+      <c r="A20" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="20" s="4" customFormat="1" ht="18">
-      <c r="A20" s="4" t="s">
+      <c r="B20" s="1">
+        <v>5.7999999999999998</v>
+      </c>
+      <c r="C20" s="1">
+        <v>100</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="0"/>
+        <v>0.057999999999999996</v>
+      </c>
+      <c r="E20" s="1">
+        <v>10</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1">
+        <f t="shared" si="2"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="4">
+    </row>
+    <row r="21" s="4" customFormat="1" ht="18">
+      <c r="A21" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="4">
         <v>60</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C21" s="4">
         <v>200</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D21" s="4">
         <f t="shared" si="0"/>
         <v>0.29999999999999999</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E21" s="4">
         <v>17</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4">
+      <c r="F21" s="4"/>
+      <c r="G21" s="4">
         <f t="shared" si="2"/>
         <v>5.0999999999999996</v>
       </c>
-      <c r="H20" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I20" s="6"/>
-      <c r="J20" s="4"/>
-    </row>
-    <row r="21" ht="18">
-      <c r="A21" s="1" t="s">
+      <c r="H21" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="1">
-        <v>6</v>
-      </c>
-      <c r="C21" s="1">
-        <v>60</v>
-      </c>
-      <c r="D21" s="1">
-        <f t="shared" ref="D21:D22" si="4">B21/C21</f>
-        <v>0.10000000000000001</v>
-      </c>
-      <c r="E21" s="1">
-        <v>2</v>
-      </c>
-      <c r="G21" s="1">
-        <f t="shared" si="2"/>
-        <v>0.20000000000000001</v>
-      </c>
-      <c r="H21" s="1"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="4"/>
     </row>
     <row r="22" ht="18">
       <c r="A22" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B22" s="1">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1">
+        <v>60</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" ref="D22:D23" si="4">B22/C22</f>
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="2"/>
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" ht="18">
+      <c r="A23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="1">
         <v>16</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C23" s="1">
         <v>80</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D23" s="1">
         <f t="shared" si="4"/>
         <v>0.20000000000000001</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E23" s="1">
         <v>1</v>
       </c>
-      <c r="G22" s="1">
-        <f>D22*E22+F23</f>
+      <c r="G23" s="1">
+        <f>D23*E23+F24</f>
         <v>0.20000000000000001</v>
       </c>
     </row>
-    <row r="23" ht="16.5">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" ht="90">
-      <c r="A24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="1">
-        <f>SUM(B9:B22)+SUM(F8:F12)+SUM(G2:G8)</f>
-        <v>420.25</v>
-      </c>
+    <row r="24" ht="16.5">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" ht="90">
+      <c r="A25" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G24" s="1">
-        <f>SUM(G2:G22)+SUM(F8:F12)</f>
-        <v>325.04200000000003</v>
-      </c>
-      <c r="H24" s="1" t="s">
+      <c r="B25" s="1">
+        <f>SUM(B9:B23)+SUM(F8:F13)+SUM(G2:G8)</f>
+        <v>423.25</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="25" ht="18">
-      <c r="B25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="8"/>
-    </row>
-    <row r="26" ht="14.25">
+      <c r="G25" s="1">
+        <f>SUM(G2:G23)+SUM(F8:F13)</f>
+        <v>328.04200000000003</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" ht="18">
       <c r="B26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="H26" s="10"/>
     </row>
     <row r="27" ht="14.25">
       <c r="B27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="E27" s="1"/>
       <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
     </row>
     <row r="28" ht="14.25">
       <c r="B28" s="1"/>
+      <c r="D28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" ht="14.25">
       <c r="B29" s="1"/>
+      <c r="F29" s="1"/>
       <c r="G29" s="1"/>
+    </row>
+    <row r="30" ht="14.25">
+      <c r="B30" s="1"/>
+      <c r="G30" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1585,15 +1628,15 @@
     <hyperlink r:id="rId2" ref="I5"/>
     <hyperlink r:id="rId3" ref="I8"/>
     <hyperlink r:id="rId4" ref="I9"/>
-    <hyperlink r:id="rId5" ref="I11"/>
-    <hyperlink r:id="rId6" ref="I12"/>
-    <hyperlink r:id="rId7" ref="I13"/>
-    <hyperlink r:id="rId8" ref="I14"/>
+    <hyperlink r:id="rId5" ref="I12"/>
+    <hyperlink r:id="rId6" ref="I13"/>
+    <hyperlink r:id="rId7" ref="I14"/>
     <hyperlink r:id="rId8" ref="I15"/>
-    <hyperlink r:id="rId9" ref="I16"/>
-    <hyperlink r:id="rId10" ref="I17"/>
-    <hyperlink r:id="rId11" ref="I18"/>
-    <hyperlink r:id="rId12" ref="I19"/>
+    <hyperlink r:id="rId8" ref="I16"/>
+    <hyperlink r:id="rId9" ref="I17"/>
+    <hyperlink r:id="rId10" ref="I18"/>
+    <hyperlink r:id="rId11" ref="I19"/>
+    <hyperlink r:id="rId12" ref="I20"/>
   </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
